--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456829E-678C-4014-A28E-88D1CABB6929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDE6DEE-1FCE-49E4-9F67-24704817DD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$136</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -461,13 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomRight" activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1296,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1411,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1687,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1756,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1871,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1894,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2009,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2124,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2216,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2248,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2262,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2331,7 +2342,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2446,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2469,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2561,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2584,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2593,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2676,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2685,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3608,7 +3619,124 @@
         <v>0</v>
       </c>
     </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>66</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>22</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>39</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDE6DEE-1FCE-49E4-9F67-24704817DD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A706EDE-565F-4D5A-8788-F491D947A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -101,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,16 +124,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D141" sqref="D141"/>
+      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,6 +3748,351 @@
         <v>0</v>
       </c>
     </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>24</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>116</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>81</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>44</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>86</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>121</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>55</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>62</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>25</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456829E-678C-4014-A28E-88D1CABB6929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A706EDE-565F-4D5A-8788-F491D947A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$136</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -90,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,16 +124,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1296,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1411,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1687,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1756,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1871,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1894,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2009,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2124,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2216,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2248,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2262,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2331,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2446,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2469,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2561,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2584,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2593,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2676,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2685,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3608,7 +3633,469 @@
         <v>0</v>
       </c>
     </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>66</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>22</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>39</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>24</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>116</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>81</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>44</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>86</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>121</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>55</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>62</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>25</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A706EDE-565F-4D5A-8788-F491D947A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BBF4C-0EF3-4039-818A-94D5B0C8111D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomRight" activeCell="D156" sqref="D152:G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4012,16 +4012,16 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,10 +4035,10 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G155">
         <v>0</v>

--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A706EDE-565F-4D5A-8788-F491D947A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8D2F8-FCFE-4354-8EF8-068823EE6578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -486,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomRight" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4012,16 +4012,16 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,10 +4035,10 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4090,6 +4090,121 @@
         <v>2</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>73</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
         <v>0</v>
       </c>
     </row>

--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BBF4C-0EF3-4039-818A-94D5B0C8111D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8D2F8-FCFE-4354-8EF8-068823EE6578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -486,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D156" sqref="D152:G156"/>
+      <selection pane="bottomRight" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,6 +4093,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>73</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8D2F8-FCFE-4354-8EF8-068823EE6578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED64306-5796-4725-B80C-891F205423ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -486,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F161" sqref="F161"/>
+      <selection pane="bottomRight" activeCell="D167" sqref="D167:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,6 +4208,236 @@
         <v>0</v>
       </c>
     </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>96</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>89</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>193</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>83</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED64306-5796-4725-B80C-891F205423ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6103AB-E531-456C-9A4A-0CA6F6526994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -486,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D167" sqref="D167:G171"/>
+      <selection pane="bottomRight" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,6 +4438,221 @@
         <v>0</v>
       </c>
     </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>31</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>13</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>119</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>25</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>131</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>89</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>30</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muestras.xlsx
+++ b/data/muestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6103AB-E531-456C-9A4A-0CA6F6526994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D3E5B-D6CF-4817-82AE-80A6D98E839E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="12">
   <si>
     <t>NEG-COVID-19</t>
   </si>
@@ -486,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D181" sqref="D181"/>
+      <selection pane="bottomRight" activeCell="D182" sqref="D182:G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4653,6 +4653,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>70</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>26</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>33</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>84</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>56</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G136" xr:uid="{52B0F4C3-943B-4C06-8F28-ED7C0550389F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
